--- a/data/Futrono.xlsx
+++ b/data/Futrono.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -583,7 +583,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">

--- a/data/Futrono.xlsx
+++ b/data/Futrono.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4058,6 +4058,50 @@
         </is>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>WWW</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Decimocuarta</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129485362&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Futrono</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
